--- a/Data/data_curation/data_radar_archivistes.xlsx
+++ b/Data/data_curation/data_radar_archivistes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rroll\Documents\GitHub\Memoire_Master\Memoire\Data\data_curation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DE7B34E-CF5C-4B6C-9488-7689D519C329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7857A3-6E58-4C5D-B366-50568006971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AC29C361-9BF3-4D6A-A3D5-AAB7FFD1F5A2}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>89.2</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -480,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -488,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -496,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
